--- a/branches/death_fig-59/ValueSet-vs-hiv-cause-of-death.xlsx
+++ b/branches/death_fig-59/ValueSet-vs-hiv-cause-of-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:36:33+00:00</t>
+    <t>2023-03-01T13:38:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/death_fig-59/ValueSet-vs-hiv-cause-of-death.xlsx
+++ b/branches/death_fig-59/ValueSet-vs-hiv-cause-of-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:38:18+00:00</t>
+    <t>2023-03-01T14:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/death_fig-59/ValueSet-vs-hiv-cause-of-death.xlsx
+++ b/branches/death_fig-59/ValueSet-vs-hiv-cause-of-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T14:59:44+00:00</t>
+    <t>2023-03-01T15:00:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/death_fig-59/ValueSet-vs-hiv-cause-of-death.xlsx
+++ b/branches/death_fig-59/ValueSet-vs-hiv-cause-of-death.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Causes of Death" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T15:00:07+00:00</t>
+    <t>2023-03-02T09:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,10 +99,19 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>80359-3</t>
+  </si>
+  <si>
+    <t>Cause of death.underlying [Manual]</t>
+  </si>
+  <si>
+    <t>69441-4</t>
+  </si>
+  <si>
+    <t>Other significant causes or conditions of death</t>
   </si>
   <si>
     <t/>
@@ -111,7 +120,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-cbs/CodeSystem/cs-hiv-cause-of-death</t>
+    <t>http://loinc.org</t>
   </si>
 </sst>
 </file>
@@ -378,7 +387,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -392,26 +401,40 @@
       <c r="A1" t="s" s="1">
         <v>28</v>
       </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/branches/death_fig-59/ValueSet-vs-hiv-cause-of-death.xlsx
+++ b/branches/death_fig-59/ValueSet-vs-hiv-cause-of-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T09:49:00+00:00</t>
+    <t>2023-03-02T09:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
